--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/EmailBot/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C675F8-73EA-9447-AFC5-209CCAAE716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E4A4F-F304-D740-AF48-08B9534CA951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
@@ -399,9 +399,6 @@
     <t>["receipt" OR "invoice" OR "monthly statement" OR "Thank you for your Steam purchase!" OR "Thanks for your payment" OR "trip with Uber" OR "order with Uber Eats" OR "authorized a payment" OR "Thank you for your purchase" OR "A shipment from order" OR "order received" OR "Your online purchase" OR "Your order" OR "e-receipt" OR "booking successful" OR "no-contact delivery" OR "Thank you for visiting" OR "Thank you for visting" OR "recent purchase"]</t>
   </si>
   <si>
-    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net"]</t>
-  </si>
-  <si>
     <t>May emails</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>["MayRungsinaporn2026" OR "paphadamayy"]</t>
+  </si>
+  <si>
+    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net" OR "dyson.com" OR "simple.life" OR "youtube.com" OR "geologie.com" OR "noodles.com" OR "builtwithscience.com" OR "topcoder.com" OR "clickup.com"]</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,10 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,7 +915,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1609,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1829,7 +1826,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>71</v>
       </c>
@@ -1861,13 +1858,13 @@
         <v>64</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>95</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1899,9 +1896,9 @@
         <v>64</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
@@ -1937,9 +1934,9 @@
         <v>64</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
@@ -1975,9 +1972,9 @@
         <v>67</v>
       </c>
       <c r="M9" s="10"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
@@ -2013,18 +2010,18 @@
         <v>67</v>
       </c>
       <c r="M10" s="10"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -2036,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -2048,84 +2045,84 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="10"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="10"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M13" s="10"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M14" s="10"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M15" s="10"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M16" s="10"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="10"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M18" s="10"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M19" s="10"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E4A4F-F304-D740-AF48-08B9534CA951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD299A-9A82-1640-954F-A416283915BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled" localSheetId="1">ClearanceRules!$A$8:$A$59</definedName>
-    <definedName name="Untitled" localSheetId="0">MainSheet!$A$12:$A$63</definedName>
+    <definedName name="Untitled" localSheetId="0">MainSheet!$A$11:$A$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
   <si>
     <t>Category</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Personal</t>
-  </si>
-  <si>
-    <t>["Cancelled"]</t>
   </si>
   <si>
     <r>
@@ -287,9 +284,6 @@
     <t>["Applying" or "application"]</t>
   </si>
   <si>
-    <t>["appointment" OR "reservation" OR "confirmation" OR "itinerary" OR "eticket"]</t>
-  </si>
-  <si>
     <t>Detects and removes emails of appointments and reservations</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>["Canceled" OR "Cancelled"]</t>
   </si>
   <si>
-    <t>[("At this time" OR "position has been filled" OR "qualifications matched more closely" OR "another candidate" OR "After careful consideration" OR "Other applicant" OR "Regret" OR "Other candidate" OR ("Thank you" AND "unfortunately")) AND (NOT "Congratulations")]</t>
-  </si>
-  <si>
     <t>Detects and labels emails of networking reply where I have already replied</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">["Alert: Following Internship Program" OR "New jobs posted from"] </t>
-  </si>
-  <si>
-    <t>["Thank you for your purchase" OR "thank you for your order"]</t>
   </si>
   <si>
     <t>Organize receipts (Body)</t>
@@ -411,7 +399,13 @@
     <t>["MayRungsinaporn2026" OR "paphadamayy"]</t>
   </si>
   <si>
-    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net" OR "dyson.com" OR "simple.life" OR "youtube.com" OR "geologie.com" OR "noodles.com" OR "builtwithscience.com" OR "topcoder.com" OR "clickup.com"]</t>
+    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net" OR "dyson.com" OR "simple.life" OR "youtube.com" OR "geologie.com" OR "noodles.com" OR "builtwithscience.com" OR "topcoder.com" OR "clickup.com" OR "indeed.com" OR "analyticsvidhya.com" OR "rosettastone.com" OR "slack.com" OR "hims.com" OR "keeps.com" OR "opera.com" OR "mindpanda.com"]</t>
+  </si>
+  <si>
+    <t>[("At this time" OR "position has been filled" OR "qualifications matched more closely" OR "After careful consideration" OR "Other applicant" OR "Regret" OR "Other candidate" OR ("Thank you" AND "unfortunately")) AND (NOT "Congratulations")]</t>
+  </si>
+  <si>
+    <t>["Thank you for your purchase" OR "thank you for your order" OR "ChatGPT - Your new plan"]</t>
   </si>
 </sst>
 </file>
@@ -913,9 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E019-7CC8-274F-A9ED-A4C3808BD8E0}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +970,7 @@
     </row>
     <row r="2" spans="1:18" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -991,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -1006,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1016,10 +1010,10 @@
     </row>
     <row r="3" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -1031,7 +1025,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -1054,10 +1048,10 @@
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -1069,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -1092,10 +1086,10 @@
     </row>
     <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -1113,19 +1107,19 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
@@ -1174,10 +1168,10 @@
     </row>
     <row r="7" spans="1:18" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
@@ -1189,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1201,7 +1195,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
@@ -1212,10 +1206,10 @@
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
@@ -1227,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1239,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
@@ -1250,10 +1244,10 @@
     </row>
     <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
@@ -1262,10 +1256,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1277,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
@@ -1288,10 +1282,10 @@
     </row>
     <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -1303,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
@@ -1315,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -1324,24 +1318,24 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -1350,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
@@ -1364,22 +1358,22 @@
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -1388,10 +1382,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
@@ -1400,37 +1394,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -1593,7 +1557,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F36F5F13-52F7-6744-B66D-C9F0951A108B}">
       <formula1>"Personal, Work, Internship, School, Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 G2:G1048576 I2:I1048576" xr:uid="{86CB18F8-2864-014C-A3B9-5E198F76DA78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 G2:G1048576 E2:E1048576" xr:uid="{86CB18F8-2864-014C-A3B9-5E198F76DA78}">
       <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment, Replies"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{DC6AB59B-B6CD-0842-AC9A-BDADA21E2029}">
@@ -1608,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFEE91-1E18-C948-9AD9-53AACE0C2C3C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,12 +1630,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="103" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
@@ -1689,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>14</v>
@@ -1698,10 +1662,10 @@
         <v>20</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1711,10 +1675,10 @@
     </row>
     <row r="3" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -1732,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>14</v>
@@ -1741,7 +1705,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -1752,10 +1716,10 @@
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>28</v>
@@ -1767,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -1779,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
@@ -1790,10 +1754,10 @@
     </row>
     <row r="5" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -1805,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
@@ -1817,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
@@ -1826,12 +1790,12 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -1843,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
@@ -1855,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
@@ -1864,12 +1828,12 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="289" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
@@ -1881,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1893,7 +1857,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
@@ -1904,10 +1868,10 @@
     </row>
     <row r="8" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
@@ -1919,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1931,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
@@ -1942,10 +1906,10 @@
     </row>
     <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -1954,10 +1918,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1969,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
@@ -1980,10 +1944,10 @@
     </row>
     <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -1995,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
@@ -2007,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -2018,10 +1982,10 @@
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -2033,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -2045,7 +2009,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
@@ -2054,7 +2018,37 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -2062,7 +2056,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -2070,7 +2064,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2078,7 +2072,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -2086,7 +2080,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -2094,7 +2088,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -2102,7 +2096,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -2110,7 +2104,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -2118,7 +2112,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -2179,10 +2173,10 @@
     <mergeCell ref="M2:P5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E1048576 G11:G1048576 I11:I1048576 I5:I8 E5:E8 G5:G8" xr:uid="{B85A1B20-9ADE-0D41-A64A-493408EBBBE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G1048576 I13:I1048576 G5:G8 I5:I8 E5:E8 I11 G11 E11 E13:E1048576" xr:uid="{B85A1B20-9ADE-0D41-A64A-493408EBBBE8}">
       <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 G2:G4 E2:E4 I9:I10 G9:G10 E9:E10" xr:uid="{8B2A8305-DAE6-FF47-8A35-6C536F794DDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 G2:G4 E2:E4 I9:I10 G9:G10 E9:E10 E12 G12 I12" xr:uid="{8B2A8305-DAE6-FF47-8A35-6C536F794DDE}">
       <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment, Replies"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B2736DE1-0E25-024A-903B-3527F7C3707B}">

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD299A-9A82-1640-954F-A416283915BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E1619C-70A9-2742-AAA5-E88DB7B95EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="101">
   <si>
     <t>Category</t>
   </si>
@@ -149,27 +149,6 @@
     <t>Personal</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Notes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>- To use conditional logic, encircle with "[]"
-- Conditional logic can use "AND", "OR", "NOT
-- Can use parentheses for the conditional logic
-- Add spacing between each operator
-- For boolean action types and condition types either input true (or empty) or false
-- Boolean condition types include: "important", "tag", "attachment". Boolean  Action types include "mark_important", "star", "archive", "delete"
-- The condition type "attachment" is special, and can be a boolean (true/false/[empty]). OR it could also be used for a name if no boolean fields were provided
-- If an "Algorithm Reviewed [Pending]" tag is moved, it is changed to the tag "Algorithm Reviewed" instead</t>
-    </r>
-  </si>
-  <si>
     <t>Cancelled Expenses</t>
   </si>
   <si>
@@ -210,9 +189,6 @@
   </si>
   <si>
     <t>Replies</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
   </si>
   <si>
     <t>Networking reply</t>
@@ -344,6 +320,48 @@
   </si>
   <si>
     <t>["Thank you for your interest" OR "Applying" OR "Application" OR "Apply" OR "candidate profile"]</t>
+  </si>
+  <si>
+    <t>["Assessment" OR "Test" OR "Coding challenge"]</t>
+  </si>
+  <si>
+    <t>["Confirm your identity" OR "verification code" OR "login code" OR "password has been updated" OR "Reset password" OR "Please confirm"]</t>
+  </si>
+  <si>
+    <t>Old emails clearance (sender) (3)</t>
+  </si>
+  <si>
+    <t>Detects and clears old subscribed emails (senders) (3)</t>
+  </si>
+  <si>
+    <t>["backerkit.com" OR "apple.com" OR "hackerrankmail.com" OR "kickstarter.com" OR "hilton.com" OR "surfshark.com" OR "venmo.com" OR "hourglasscosmetics.com" OR "epicgames.com" OR "crunchyroll.com" OR "youtooz.com" OR "ibm.com" OR "opentable.com" OR "playstation.com" OR "skims.com" OR "nintendo.com" OR "united.com" OR "codewithmosh.com" OR "link.com" OR "geeksforgeeks.org" OR "redditmail.com" OR "riotgames.com" OR "unstablegames.com" OR "saebo.com" OR "headstarter.com" OR "scb.co.th" OR "canva.com" OR "paramount.com" OR "leetcode.com" OR "coldcultureworldwide.com" OR "ripplematch.com" OR "norton.com" OR "sony.com" OR "splitwise.com" OR "extern.com" OR "scribbr.nl" OR "krungthai.com" OR "godaddy.com" OR "disneyplus.com"]</t>
+  </si>
+  <si>
+    <t>["receipt" OR "invoice" OR "monthly statement" OR "Thank you for your Steam purchase!" OR "Thanks for your payment" OR "trip with Uber" OR "order with Uber Eats" OR "authorized a payment" OR "Thank you for your purchase" OR "A shipment from order" OR "order received" OR "Your online purchase" OR "Your order" OR "e-receipt" OR "booking successful" OR "no-contact delivery" OR "Thank you for visiting" OR "Thank you for visting" OR "recent purchase"]</t>
+  </si>
+  <si>
+    <t>May emails</t>
+  </si>
+  <si>
+    <t>Organizes old emails from May to miscellaneous</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>["MayRungsinaporn2026" OR "paphadamayy"]</t>
+  </si>
+  <si>
+    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net" OR "dyson.com" OR "simple.life" OR "youtube.com" OR "geologie.com" OR "noodles.com" OR "builtwithscience.com" OR "topcoder.com" OR "clickup.com" OR "indeed.com" OR "analyticsvidhya.com" OR "rosettastone.com" OR "slack.com" OR "hims.com" OR "keeps.com" OR "opera.com" OR "mindpanda.com"]</t>
+  </si>
+  <si>
+    <t>[("At this time" OR "position has been filled" OR "qualifications matched more closely" OR "After careful consideration" OR "Other applicant" OR "Regret" OR "Other candidate" OR ("Thank you" AND "unfortunately")) AND (NOT "Congratulations")]</t>
+  </si>
+  <si>
+    <t>["Thank you for your purchase" OR "thank you for your order" OR "ChatGPT - Your new plan"]</t>
+  </si>
+  <si>
+    <t>"==2"</t>
   </si>
   <si>
     <r>
@@ -365,47 +383,9 @@
 - The condition type "attachment" is special, and can be a boolean (true/false/[empty]). OR it could also be used for a name if no boolean fields were provided
 - If an "Algorithm Reviewed [Pending]" tag is moved, it is changed to the tag "Algorithm Reviewed" instead
 - Conditions are combined through "And" 
-- Make sure no single word or phrase is more than one line in the excel, it confuses the parser</t>
+- Make sure no single word or phrase is more than one line in the excel, it confuses the parser
+- Replies can be indicated using &gt;, &lt;, or == and need to be surrounded by parentheses</t>
     </r>
-  </si>
-  <si>
-    <t>["Assessment" OR "Test" OR "Coding challenge"]</t>
-  </si>
-  <si>
-    <t>["Confirm your identity" OR "verification code" OR "login code" OR "password has been updated" OR "Reset password" OR "Please confirm"]</t>
-  </si>
-  <si>
-    <t>Old emails clearance (sender) (3)</t>
-  </si>
-  <si>
-    <t>Detects and clears old subscribed emails (senders) (3)</t>
-  </si>
-  <si>
-    <t>["backerkit.com" OR "apple.com" OR "hackerrankmail.com" OR "kickstarter.com" OR "hilton.com" OR "surfshark.com" OR "venmo.com" OR "hourglasscosmetics.com" OR "epicgames.com" OR "crunchyroll.com" OR "youtooz.com" OR "ibm.com" OR "opentable.com" OR "playstation.com" OR "skims.com" OR "nintendo.com" OR "united.com" OR "codewithmosh.com" OR "link.com" OR "geeksforgeeks.org" OR "redditmail.com" OR "riotgames.com" OR "unstablegames.com" OR "saebo.com" OR "headstarter.com" OR "scb.co.th" OR "canva.com" OR "paramount.com" OR "leetcode.com" OR "coldcultureworldwide.com" OR "ripplematch.com" OR "norton.com" OR "sony.com" OR "splitwise.com" OR "extern.com" OR "scribbr.nl" OR "krungthai.com" OR "godaddy.com" OR "disneyplus.com"]</t>
-  </si>
-  <si>
-    <t>["receipt" OR "invoice" OR "monthly statement" OR "Thank you for your Steam purchase!" OR "Thanks for your payment" OR "trip with Uber" OR "order with Uber Eats" OR "authorized a payment" OR "Thank you for your purchase" OR "A shipment from order" OR "order received" OR "Your online purchase" OR "Your order" OR "e-receipt" OR "booking successful" OR "no-contact delivery" OR "Thank you for visiting" OR "Thank you for visting" OR "recent purchase"]</t>
-  </si>
-  <si>
-    <t>May emails</t>
-  </si>
-  <si>
-    <t>Organizes old emails from May to miscellaneous</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>["MayRungsinaporn2026" OR "paphadamayy"]</t>
-  </si>
-  <si>
-    <t>["facebookmail.com" OR "axapartners.com" OR "figma.com" OR "chegg.com" OR "spotify.com" OR "mega.nz" OR "grammarly.com" OR "notion.so" OR "minnstate.edu" OR "megatix.in.th" OR "deepstash.com" OR "battle.net" OR "dyson.com" OR "simple.life" OR "youtube.com" OR "geologie.com" OR "noodles.com" OR "builtwithscience.com" OR "topcoder.com" OR "clickup.com" OR "indeed.com" OR "analyticsvidhya.com" OR "rosettastone.com" OR "slack.com" OR "hims.com" OR "keeps.com" OR "opera.com" OR "mindpanda.com"]</t>
-  </si>
-  <si>
-    <t>[("At this time" OR "position has been filled" OR "qualifications matched more closely" OR "After careful consideration" OR "Other applicant" OR "Regret" OR "Other candidate" OR ("Thank you" AND "unfortunately")) AND (NOT "Congratulations")]</t>
-  </si>
-  <si>
-    <t>["Thank you for your purchase" OR "thank you for your order" OR "ChatGPT - Your new plan"]</t>
   </si>
 </sst>
 </file>
@@ -907,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E019-7CC8-274F-A9ED-A4C3808BD8E0}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:L11"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,7 +950,7 @@
     </row>
     <row r="2" spans="1:18" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -985,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>
@@ -1000,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1010,10 +990,10 @@
     </row>
     <row r="3" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -1025,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -1048,10 +1028,10 @@
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -1063,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -1086,10 +1066,10 @@
     </row>
     <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -1107,19 +1087,19 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
@@ -1130,7 +1110,7 @@
     </row>
     <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="7" spans="1:18" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
@@ -1183,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1195,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
@@ -1206,10 +1186,10 @@
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
@@ -1221,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1233,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
@@ -1244,10 +1224,10 @@
     </row>
     <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
@@ -1256,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1271,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
@@ -1282,10 +1262,10 @@
     </row>
     <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -1297,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
@@ -1309,7 +1289,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -1320,22 +1300,22 @@
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -1358,10 +1338,10 @@
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
@@ -1373,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -1572,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFEE91-1E18-C948-9AD9-53AACE0C2C3C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1632,10 +1612,10 @@
     </row>
     <row r="2" spans="1:18" ht="103" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
@@ -1653,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>14</v>
@@ -1662,10 +1642,10 @@
         <v>20</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1675,10 +1655,10 @@
     </row>
     <row r="3" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -1696,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>14</v>
@@ -1705,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -1716,10 +1696,10 @@
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>28</v>
@@ -1731,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -1743,7 +1723,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
@@ -1754,10 +1734,10 @@
     </row>
     <row r="5" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -1769,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
@@ -1781,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
@@ -1792,10 +1772,10 @@
     </row>
     <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -1807,7 +1787,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
@@ -1819,7 +1799,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
@@ -1830,10 +1810,10 @@
     </row>
     <row r="7" spans="1:18" ht="289" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
@@ -1845,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
@@ -1857,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
@@ -1868,10 +1848,10 @@
     </row>
     <row r="8" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
@@ -1883,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1895,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
@@ -1906,10 +1886,10 @@
     </row>
     <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -1918,10 +1898,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1933,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
@@ -1944,10 +1924,10 @@
     </row>
     <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -1959,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
@@ -1971,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
@@ -1982,10 +1962,10 @@
     </row>
     <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -1997,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -2009,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
@@ -2020,10 +2000,10 @@
     </row>
     <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -2032,10 +2012,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -2047,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E1619C-70A9-2742-AAA5-E88DB7B95EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BC280-0DA8-8949-9090-2FE7E67422D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ClearanceRules" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Untitled" localSheetId="1">ClearanceRules!$A$8:$A$59</definedName>
+    <definedName name="Untitled" localSheetId="1">ClearanceRules!$A$8:$A$60</definedName>
     <definedName name="Untitled" localSheetId="0">MainSheet!$A$11:$A$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -887,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45E019-7CC8-274F-A9ED-A4C3808BD8E0}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:P7"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFEE91-1E18-C948-9AD9-53AACE0C2C3C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1770,7 +1770,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
@@ -1884,12 +1884,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -1901,7 +1901,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1913,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
@@ -1936,10 +1936,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
@@ -1960,24 +1960,24 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -1989,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
@@ -1998,24 +1998,24 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -2027,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
@@ -2153,10 +2153,10 @@
     <mergeCell ref="M2:P5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G1048576 I13:I1048576 G5:G8 I5:I8 E5:E8 I11 G11 E11 E13:E1048576" xr:uid="{B85A1B20-9ADE-0D41-A64A-493408EBBBE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 I14:I1048576 I12 G12 E12 E14:E1048576 I5:I8 E5:E8 G5:G8" xr:uid="{B85A1B20-9ADE-0D41-A64A-493408EBBBE8}">
       <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 G2:G4 E2:E4 I9:I10 G9:G10 E9:E10 E12 G12 I12" xr:uid="{8B2A8305-DAE6-FF47-8A35-6C536F794DDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 G2:G4 E2:E4 I9:I11 G9:G11 E9:E11 E13 G13 I13" xr:uid="{8B2A8305-DAE6-FF47-8A35-6C536F794DDE}">
       <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment, Replies"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B2736DE1-0E25-024A-903B-3527F7C3707B}">

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BC280-0DA8-8949-9090-2FE7E67422D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC6D7B9-1E97-9A42-988E-F157DC9079FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
@@ -1327,7 +1327,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC6D7B9-1E97-9A42-988E-F157DC9079FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3016482-32CE-424B-81DD-88E2FED32101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled" localSheetId="1">ClearanceRules!$A$8:$A$60</definedName>
-    <definedName name="Untitled" localSheetId="0">MainSheet!$A$11:$A$62</definedName>
+    <definedName name="Untitled" localSheetId="0">MainSheet!$A$11:$A$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="101">
   <si>
     <t>Category</t>
   </si>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,7 +892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="69" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -977,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>100</v>
@@ -999,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
@@ -1017,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -1119,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
@@ -1157,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -1172,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>31</v>
@@ -1195,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>19</v>
@@ -1210,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>31</v>
@@ -1336,24 +1339,24 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -1362,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
@@ -1374,7 +1377,38 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -1382,7 +1416,38 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -1390,7 +1455,38 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -1398,7 +1494,38 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -1406,7 +1533,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -1414,7 +1572,12 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -1422,7 +1585,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -1430,7 +1593,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="13:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -1438,7 +1601,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1446,7 +1609,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1454,7 +1617,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1462,7 +1625,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1470,7 +1633,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1478,7 +1641,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1486,7 +1649,37 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1494,7 +1687,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M28" s="2"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1502,7 +1695,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1510,7 +1703,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1518,7 +1711,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -1530,15 +1723,18 @@
   <mergeCells count="1">
     <mergeCell ref="M2:P7"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G1048576 I18:I1048576 I2:I12 G2:G12 E2:E12 E18:E1048576 I14:I16 G14:G16 E14:E16" xr:uid="{86CB18F8-2864-014C-A3B9-5E198F76DA78}">
+      <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment, Replies"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17 G17 E17 G13 E13 I13" xr:uid="{0CDB2589-C7C1-C841-A05D-EA43F971E932}">
+      <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{36C19506-DCB0-C04C-8390-D63500D6F446}">
       <formula1>"None, Label, Move, Mark_important, Star, Archive, Delete"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F36F5F13-52F7-6744-B66D-C9F0951A108B}">
       <formula1>"Personal, Work, Internship, School, Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 G2:G1048576 E2:E1048576" xr:uid="{86CB18F8-2864-014C-A3B9-5E198F76DA78}">
-      <formula1>"None, Sender, Subject, Body, Date, Important, Tag, Attachment, Replies"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{DC6AB59B-B6CD-0842-AC9A-BDADA21E2029}">
       <formula1>"None, Move_to, Keep_in_inbox, Set_as_important, Set_star, Archive, Set_reminder, PAUSED"</formula1>
@@ -1552,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EFEE91-1E18-C948-9AD9-53AACE0C2C3C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/rules.xlsx
+++ b/resources/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazvongpatarakul/Desktop/CodingStuff/Email Bot/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3016482-32CE-424B-81DD-88E2FED32101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4CE6A7-0A57-5E44-9E07-D92420293BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{BF4DFA8F-5AC1-D046-ABB2-A830C2A778D3}"/>
   </bookViews>
@@ -891,8 +891,8 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>38</v>
@@ -1251,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>31</v>
